--- a/sql query/Book1.xlsx
+++ b/sql query/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\upg automation\sql query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705B620-9423-4AD3-BB01-AF4CD6F514F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD9D2C9-4CF5-4545-92FB-1B3FAFEAC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R56"/>
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sql query/Book1.xlsx
+++ b/sql query/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\upg automation\sql query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD9D2C9-4CF5-4545-92FB-1B3FAFEAC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5626678-727D-4221-9E5D-01F089B68F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sql query/Book1.xlsx
+++ b/sql query/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\upg automation\sql query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5626678-727D-4221-9E5D-01F089B68F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB139FBB-718E-458D-A8B6-7A5AF3915592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>df90c5c9-7fb3-4633-99db-259b2ce82990</t>
+  </si>
+  <si>
+    <t>065af9ab-0f51-4afc-a784-8f9b765103f7</t>
+  </si>
+  <si>
+    <t>2022-07-07 05:06:10.258+0000</t>
+  </si>
+  <si>
+    <t>03e1e470-6795-493c-8e4e-7d6b60288390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ক্ষুদ্র ব্যবসা করা</t>
+  </si>
+  <si>
+    <t>09917d79-3552-48f5-9d55-04d314d1e94e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জমি বন্ধকী নিতে হবে।</t>
+  </si>
+  <si>
+    <t>34ab5500-05d9-4b07-b572-8169105a289f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ল্যাট্রিন স্থাপন করতে হবে। </t>
+  </si>
+  <si>
+    <t>39210725-bfce-448c-a3ef-e35d75678dc9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নলকূপের গোড়া পাকা করতে হবে।</t>
+  </si>
+  <si>
+    <t>40714c4d-d936-4fd0-b5e0-bdac8937c42e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সদস্যের বসবাসের ঘর মেরামত করতে হবে।</t>
+  </si>
+  <si>
+    <t>4290b74e-dcbf-4247-b5ed-e9768be810e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বসত-বাড়িতে সবজি চাষ।</t>
+  </si>
+  <si>
+    <t>4f7f03e5-0cf7-4e66-9e0c-1097ba94e642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গরু ক্রয় করতে হবে।</t>
+  </si>
+  <si>
+    <t>58fe74d3-8e28-468c-9610-0f18cf99a93a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গবাদি প্রানীকে রেডি ফিড খাওয়ানো।</t>
+  </si>
+  <si>
+    <t>5b98f39c-03bf-43c1-aa98-cf6766a09887</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জমি লীজ নিতে হবে।</t>
+  </si>
+  <si>
+    <t>7ace4937-0c36-417f-bfc9-bd2d4a182226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ল্যাট্রিনের বেড়া, চালা, দরজা মেরামত করতে হবে। </t>
+  </si>
+  <si>
+    <t>870322a4-fa25-452a-a040-2429e1ae89ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খাঁচায় হাঁস পালন।</t>
+  </si>
+  <si>
+    <t>8ba6ae33-0e41-4287-b233-a73603b23a62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ল্যাট্রিনের ওয়াটার সীল/ অপসেট/ স্যাটোপ্যান স্থাপন করতে হবে।</t>
+  </si>
+  <si>
+    <t>a3f998c2-c517-48f5-93ea-5d57cfb5ccb0</t>
+  </si>
+  <si>
+    <t>অন্যান্য/Other</t>
+  </si>
+  <si>
+    <t>afc3f4ea-07b2-46a8-8399-f77e13b78678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খাঁচায় মুরগী পালন।</t>
+  </si>
+  <si>
+    <t>c418fff8-f49e-4e4d-a192-adefaa608bb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভ্যান ক্রয় করতে হবে।</t>
+  </si>
+  <si>
+    <t>ccb6b779-ef46-4bbc-b771-748533dcf5ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রিকশা ক্রয় করতে হবে।</t>
+  </si>
+  <si>
+    <t>cdc4fd63-618e-4891-bcdc-07e344bfe155</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নলকূপ স্থাপন করতে হবে।</t>
+  </si>
+  <si>
+    <t>dec534ef-b9b7-4c8a-a0c2-09e7b8bcb843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জমি বর্গা নিতে হবে।</t>
+  </si>
+  <si>
+    <t>f239d14f-ec68-404b-8ac8-edac253b8ffc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভেড়া ক্রয় করতে হবে।</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,14 +468,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>